--- a/Zarina_url.xlsx
+++ b/Zarina_url.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaeseong\Desktop\node_practice\crawling-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5181A5E7-7A52-4D3B-BD71-F77771990B27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E7E6E8-EE91-4048-AA30-14DFDB20BEAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="111">
   <si>
     <t>Brand</t>
   </si>
@@ -88,8 +88,1172 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/6709455/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=5301949</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/6836093/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=5391932</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/6870364/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=5416494</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/6870946/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=5416925</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/6952170/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=5475362</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/6952174/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=5475365</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/6952176/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=5475367</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/7025144/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=5528643</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/7884604/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6144820</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/7887452/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6146625</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8003537/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6227084</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8077392/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6279268</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8169579/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6345439</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8311235/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6446180</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8396559/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6506732</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8444487/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6540207</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8461615/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6552745</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8508334/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6586327</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8559126/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6622926</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8559302/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6622984</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8559374/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6623037</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8559453/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6623114</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8559492/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6623144</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8578328/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6637439</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8753062/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6763567</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8753069/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6763568</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8753181/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6763645</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8753327/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6763773</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8753395/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6763778</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8753400/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6763781</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8753600/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6763897</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8819163/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6810639</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8819258/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6810699</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/8843736/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=6827884</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/9210398/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=7082675</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/9224983/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=7072569</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/9410056/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=7223619</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/9501662/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=7284848</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/9777653/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=7469879</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/9778074/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=7470216</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/9968989/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=7597705</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10281101/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=7811350</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10286506/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=7815082</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10407151/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=7899047</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10407156/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=7899049</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10539392/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=7989561</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10547936/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=7994796</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10577911/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8015356</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10620992/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8045575</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10621000/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8045582</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10621002/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8045583</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10730207/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8120348</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10795808/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8166037</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10796342/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8166330</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10825733/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8186638</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10845712/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8201006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10845936/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8201142</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10889242/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8231673</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10889243/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8231673</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10890809/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8232945</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10957677/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8279137</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/10995722/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8305424</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11028602/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8328277</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11028603/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8328278</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11028604/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8328278</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11057180/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8349137</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11057183/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8349139</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11057379/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8329303</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11058227/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8349844</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11060351/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8351238</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11108716/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8384700</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11108717/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8384699</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11166669/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8423393</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11166673/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8423394</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11268191/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8384700</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11268226/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8495819</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11268262/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8328275</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11268297/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8495862</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11268298/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8495862</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11344692/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8349137</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11346109/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8548887</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11377430/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8569859</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11381226/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8572131</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11396654/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8582198</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11401302/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8585077</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11405655/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8587852</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11477216/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8638680</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11477218/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8638680</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11477222/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8638681</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11582461/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8709169</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11582462/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8709169</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11583133/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8709673</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11583572/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8709987</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11583574/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8709987</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11617997/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8733700</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11617999/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8733700</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.wildberries.ru/catalog/11636487/otzyvy?page={}&amp;field=Date&amp;order=Desc&amp;link=8746322</t>
+    </r>
+  </si>
+  <si>
     <t>Item_Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -110,16 +1274,16 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +1327,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1324,10 +2488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1341,7 +2505,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1437,15 +2601,2246 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>6709455</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1271</v>
+      </c>
+      <c r="D5" s="3">
+        <v>600</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>6836093</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>960</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6870364</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1235</v>
+      </c>
+      <c r="D7" s="3">
+        <v>800</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>6870946</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1330</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>6952170</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1425</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>6952174</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3642</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>6952176</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1330</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>7025144</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>949</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>7884604</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>599</v>
+      </c>
+      <c r="D13" s="3">
+        <v>600</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>7887452</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>854</v>
+      </c>
+      <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>8003537</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>967</v>
+      </c>
+      <c r="D15" s="3">
+        <v>800</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>8077392</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1239</v>
+      </c>
+      <c r="D16" s="3">
+        <v>400</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>8169579</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1710</v>
+      </c>
+      <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>8311235</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>571</v>
+      </c>
+      <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>8396559</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2559</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>8444487</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2296</v>
+      </c>
+      <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>8461615</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1071</v>
+      </c>
+      <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>8508334</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>764</v>
+      </c>
+      <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>8559126</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1143</v>
+      </c>
+      <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>8559302</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2111</v>
+      </c>
+      <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>8559374</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1459</v>
+      </c>
+      <c r="D25" s="3">
+        <v>700</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>8559453</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>764</v>
+      </c>
+      <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>8559492</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1266</v>
+      </c>
+      <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>8578328</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4003</v>
+      </c>
+      <c r="D28" s="3">
+        <v>700</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>8753062</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1389</v>
+      </c>
+      <c r="D29" s="3">
+        <v>900</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>8753069</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1211</v>
+      </c>
+      <c r="D30" s="3">
+        <v>600</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>8753181</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3959</v>
+      </c>
+      <c r="D31" s="3">
+        <v>600</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>8753327</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3695</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>8753395</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1319</v>
+      </c>
+      <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>8753400</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4592</v>
+      </c>
+      <c r="D34" s="3">
+        <v>900</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>8753600</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3475</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>8819163</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1900</v>
+      </c>
+      <c r="D36" s="3">
+        <v>500</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>8819258</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3">
+        <v>949</v>
+      </c>
+      <c r="D37" s="3">
+        <v>500</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>8843736</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3827</v>
+      </c>
+      <c r="D38" s="3">
+        <v>900</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>9210398</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1254</v>
+      </c>
+      <c r="D39" s="3">
+        <v>600</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>9224983</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4223</v>
+      </c>
+      <c r="D40" s="3">
+        <v>800</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>9410056</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1836</v>
+      </c>
+      <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>9501662</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1372</v>
+      </c>
+      <c r="D42" s="3">
+        <v>500</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>9777653</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1123</v>
+      </c>
+      <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>9778074</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1377</v>
+      </c>
+      <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>9968989</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2630</v>
+      </c>
+      <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>10281101</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1182</v>
+      </c>
+      <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>10286506</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1583</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>10407151</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1551</v>
+      </c>
+      <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>10407156</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1551</v>
+      </c>
+      <c r="D49" s="3">
+        <v>900</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>10539392</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1399</v>
+      </c>
+      <c r="D50" s="3">
+        <v>300</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>10547936</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3">
+        <v>4149</v>
+      </c>
+      <c r="D51" s="3">
+        <v>700</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>10577911</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2287</v>
+      </c>
+      <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>10620992</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2327</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>10621000</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1253</v>
+      </c>
+      <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>10621002</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1519</v>
+      </c>
+      <c r="D55" s="3">
+        <v>400</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>10730207</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1049</v>
+      </c>
+      <c r="D56" s="3">
+        <v>400</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>10795808</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2279</v>
+      </c>
+      <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>10796342</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1583</v>
+      </c>
+      <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>10825733</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3">
+        <v>4647</v>
+      </c>
+      <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>10845712</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2729</v>
+      </c>
+      <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>10845936</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2279</v>
+      </c>
+      <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>10889242</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3">
+        <v>3343</v>
+      </c>
+      <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>10889243</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="3">
+        <v>3343</v>
+      </c>
+      <c r="D63" s="3">
+        <v>200</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>10890809</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3">
+        <v>703</v>
+      </c>
+      <c r="D64" s="3">
+        <v>200</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>10957677</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="3">
+        <v>527</v>
+      </c>
+      <c r="D65" s="3">
+        <v>900</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>10995722</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2807</v>
+      </c>
+      <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>11028602</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2089</v>
+      </c>
+      <c r="D67" s="3">
+        <v>600</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>11028603</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2469</v>
+      </c>
+      <c r="D68" s="3">
+        <v>700</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>11028604</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2469</v>
+      </c>
+      <c r="D69" s="3">
+        <v>900</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>11057180</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1043</v>
+      </c>
+      <c r="D70" s="3">
+        <v>300</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>11057183</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1124</v>
+      </c>
+      <c r="D71" s="3">
+        <v>400</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>11057379</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1356</v>
+      </c>
+      <c r="D72" s="3">
+        <v>200</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>11058227</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2659</v>
+      </c>
+      <c r="D73" s="3">
+        <v>300</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>11060351</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2339</v>
+      </c>
+      <c r="D74" s="3">
+        <v>200</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>11108716</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3">
+        <v>2209</v>
+      </c>
+      <c r="D75" s="3">
+        <v>200</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>11108717</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3">
+        <v>3167</v>
+      </c>
+      <c r="D76" s="3">
+        <v>300</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>11166669</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="3">
+        <v>2105</v>
+      </c>
+      <c r="D77" s="3">
+        <v>400</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>11166673</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1619</v>
+      </c>
+      <c r="D78" s="3">
+        <v>100</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>11268191</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2209</v>
+      </c>
+      <c r="D79" s="3">
+        <v>200</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>11268226</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2327</v>
+      </c>
+      <c r="D80" s="3">
+        <v>900</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>11268262</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1391</v>
+      </c>
+      <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>11268297</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1619</v>
+      </c>
+      <c r="D82" s="3">
+        <v>80</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>11268298</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1619</v>
+      </c>
+      <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>11344692</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1043</v>
+      </c>
+      <c r="D84" s="3">
+        <v>300</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>11346109</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2133</v>
+      </c>
+      <c r="D85" s="3">
+        <v>600</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>11377430</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="3">
+        <v>3167</v>
+      </c>
+      <c r="D86" s="3">
+        <v>70</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>11381226</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="3">
+        <v>839</v>
+      </c>
+      <c r="D87" s="3">
+        <v>100</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>11396654</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="3">
+        <v>929</v>
+      </c>
+      <c r="D88" s="3">
+        <v>100</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>11401302</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1055</v>
+      </c>
+      <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>11405655</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1457</v>
+      </c>
+      <c r="D90" s="3">
+        <v>100</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>11477216</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="3">
+        <v>703</v>
+      </c>
+      <c r="D91" s="3">
+        <v>200</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <v>11477218</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="3">
+        <v>703</v>
+      </c>
+      <c r="D92" s="3">
+        <v>100</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <v>11477222</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="3">
+        <v>421</v>
+      </c>
+      <c r="D93" s="3">
+        <v>100</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>11582461</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2639</v>
+      </c>
+      <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <v>11582462</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="3">
+        <v>2639</v>
+      </c>
+      <c r="D95" s="3">
+        <v>400</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>11583133</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2279</v>
+      </c>
+      <c r="D96" s="3">
+        <v>100</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <v>11583572</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2279</v>
+      </c>
+      <c r="D97" s="3">
+        <v>900</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <v>11583574</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="3">
+        <v>2279</v>
+      </c>
+      <c r="D98" s="3">
+        <v>400</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
+        <v>11617997</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="3">
+        <v>2287</v>
+      </c>
+      <c r="D99" s="3">
+        <v>100</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
+        <v>11617999</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2287</v>
+      </c>
+      <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>11636487</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="3">
+        <v>3374</v>
+      </c>
+      <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
